--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B683AB24-1056-40FC-96E9-FCC1B07C9B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B5211B-9131-4153-9F70-8394CE3B9631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -37,9 +37,6 @@
     <t>file2.txt,file3.txt</t>
   </si>
   <si>
-    <t>no5510425@gmail.com</t>
-  </si>
-  <si>
     <t>Job-title</t>
   </si>
   <si>
@@ -56,13 +53,19 @@
   </si>
   <si>
     <t>السيد</t>
+  </si>
+  <si>
+    <t>no5510425@gmail.com,dev@una-oic.org</t>
+  </si>
+  <si>
+    <t>islambadran39@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +78,14 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,16 +105,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -406,20 +422,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="25.42578125" style="1"/>
+    <col min="1" max="4" width="25.44140625" style="1"/>
     <col min="5" max="5" width="7" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="25.42578125" style="1"/>
+    <col min="6" max="16384" width="25.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -439,21 +455,21 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1">
         <v>3</v>
@@ -462,10 +478,37 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{CA1728F4-ACA0-4C25-A966-06E27FD8FCF0}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{8CB74AC3-40F1-45E0-B953-608A1F5286BF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -476,7 +519,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -488,7 +531,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
